--- a/data/TC08_VerifyTotalPrice.xlsx
+++ b/data/TC08_VerifyTotalPrice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>User Name</t>
   </si>
@@ -61,13 +61,19 @@
     <t>1 - One</t>
   </si>
   <si>
-    <t>21/05/2016</t>
-  </si>
-  <si>
     <t>2 - Two</t>
   </si>
   <si>
-    <t>22/05/2016</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>AUD $ 250</t>
+  </si>
+  <si>
+    <t>29/05/2016</t>
+  </si>
+  <si>
+    <t>30/05/2016</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,10 +432,11 @@
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +464,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -475,16 +485,19 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/TC08_VerifyTotalPrice.xlsx
+++ b/data/TC08_VerifyTotalPrice.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/TC08_VerifyTotalPrice.xlsx
+++ b/data/TC08_VerifyTotalPrice.xlsx
@@ -70,10 +70,10 @@
     <t>AUD $ 250</t>
   </si>
   <si>
-    <t>29/05/2016</t>
-  </si>
-  <si>
-    <t>30/05/2016</t>
+    <t>29/07/2017</t>
+  </si>
+  <si>
+    <t>30/07/2017</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
